--- a/Mô tả tài khoản số đẹp mới_final (2).xlsx
+++ b/Mô tả tài khoản số đẹp mới_final (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sang\Minerva\check_tktt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328924DB-41A2-4C24-8DDA-E7968E896998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05FCA06-F0C5-4D57-9A14-4436838DD5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3478,12 +3478,6 @@
 - Các số ngẫu nhiên còn lại không được là số soi gương</t>
   </si>
   <si>
-    <t>- Dãy số có chứa 02 cặp số/04 số tiến liền kề lăp lại nhau ở vị trí đầu hoặc vị trí cuối, bao gồm các ký tự từ 0 đến 9. (không áp dụng với cặp số "6868" lặp ở vị trí cuối của dãy số tài khoản)
-- Các ký tự số liền kề trong dãy số lặp lại không được là số giống nhau.
-- Các số ngẫu nhiên còn lại là các ký tự số bất kỳ từ 0 đến 9, Đối với các ký tự số 6, 7, 8, 9: được xuất hiện kết hợp tối đa 07 con số trong các số ngẫu nhiên còn lại
-- Các số ngẫu nhiên còn lại không được là số soi gương</t>
-  </si>
-  <si>
     <r>
       <t>(1) abcd</t>
     </r>
@@ -7411,12 +7405,15 @@
   <si>
     <t>x`</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7591,6 +7588,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -7849,7 +7852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8059,6 +8062,21 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8086,29 +8104,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8116,8 +8131,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8126,21 +8144,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8170,23 +8173,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8214,12 +8232,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8773,8 +8785,8 @@
   </sheetPr>
   <dimension ref="A1:AE1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="89" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8798,30 +8810,30 @@
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
       <c r="C1" s="48"/>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="115"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:31" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
       <c r="K2" s="51"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
@@ -8870,14 +8882,14 @@
         <v>84</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -8886,25 +8898,25 @@
       <c r="C4" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="100" t="s">
         <v>101</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="100" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="20"/>
@@ -8927,24 +8939,24 @@
       <c r="AE4" s="22"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="114"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="114"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="114"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="20"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -8965,24 +8977,24 @@
       <c r="AE5" s="22"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="114"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="114"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="119"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="114"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
       <c r="K6" s="20"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -9003,20 +9015,20 @@
       <c r="AE6" s="22"/>
     </row>
     <row r="7" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="97" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>86</v>
@@ -9024,7 +9036,7 @@
       <c r="I7" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="117" t="s">
+      <c r="J7" s="80" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="20"/>
@@ -9047,14 +9059,14 @@
       <c r="AE7" s="22"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="54" t="s">
         <v>106</v>
       </c>
@@ -9064,7 +9076,7 @@
       <c r="I8" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="118"/>
+      <c r="J8" s="81"/>
       <c r="K8" s="20"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -9085,7 +9097,7 @@
       <c r="AE8" s="22"/>
     </row>
     <row r="9" spans="1:31" ht="126" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="98" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="44" t="s">
@@ -9095,20 +9107,20 @@
         <v>119</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
       <c r="K9" s="46"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -9129,7 +9141,7 @@
       <c r="AE9" s="22"/>
     </row>
     <row r="10" spans="1:31" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="44" t="s">
         <v>7</v>
       </c>
@@ -9137,18 +9149,18 @@
         <v>118</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="20"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -9169,7 +9181,7 @@
       <c r="AE10" s="22"/>
     </row>
     <row r="11" spans="1:31" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="44" t="s">
         <v>8</v>
       </c>
@@ -9177,13 +9189,13 @@
         <v>117</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>102</v>
@@ -9192,10 +9204,10 @@
         <v>88</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K11" s="20"/>
       <c r="O11" s="22"/>
@@ -9217,7 +9229,7 @@
       <c r="AE11" s="22"/>
     </row>
     <row r="12" spans="1:31" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="98" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -9227,13 +9239,13 @@
         <v>85</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>87</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>85</v>
@@ -9245,7 +9257,7 @@
         <v>112</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K12" s="20"/>
       <c r="O12" s="22"/>
@@ -9267,7 +9279,7 @@
       <c r="AE12" s="22"/>
     </row>
     <row r="13" spans="1:31" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="44" t="s">
         <v>7</v>
       </c>
@@ -9275,25 +9287,25 @@
         <v>120</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>94</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="73" t="s">
-        <v>204</v>
-      </c>
       <c r="I13" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K13" s="20"/>
       <c r="O13" s="22"/>
@@ -9315,7 +9327,7 @@
       <c r="AE13" s="22"/>
     </row>
     <row r="14" spans="1:31" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="44" t="s">
         <v>8</v>
       </c>
@@ -9338,10 +9350,10 @@
         <v>87</v>
       </c>
       <c r="I14" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K14" s="20"/>
       <c r="O14" s="22"/>
@@ -9363,18 +9375,18 @@
       <c r="AE14" s="22"/>
     </row>
     <row r="15" spans="1:31" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="97" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="57" t="s">
         <v>104</v>
       </c>
@@ -9382,10 +9394,10 @@
         <v>87</v>
       </c>
       <c r="I15" s="71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K15" s="20"/>
       <c r="O15" s="22"/>
@@ -9407,14 +9419,14 @@
       <c r="AE15" s="22"/>
     </row>
     <row r="16" spans="1:31" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
       <c r="G16" s="62" t="s">
         <v>107</v>
       </c>
@@ -9422,7 +9434,7 @@
         <v>94</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>113</v>
@@ -9453,10 +9465,10 @@
       <c r="B17" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
       <c r="G17" s="57" t="s">
         <v>103</v>
       </c>
@@ -9464,10 +9476,10 @@
         <v>87</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K17" s="20"/>
       <c r="O17" s="22"/>
@@ -9489,7 +9501,7 @@
       <c r="AE17" s="22"/>
     </row>
     <row r="18" spans="1:31" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="121" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -9504,15 +9516,15 @@
       <c r="E18" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
       <c r="K18" s="20"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -9533,7 +9545,7 @@
       <c r="AE18" s="22"/>
     </row>
     <row r="19" spans="1:31" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="44" t="s">
         <v>7</v>
       </c>
@@ -9546,9 +9558,9 @@
       <c r="E19" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="98"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>88</v>
@@ -9579,29 +9591,29 @@
       <c r="AE19" s="22"/>
     </row>
     <row r="20" spans="1:31" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="87" t="s">
+      <c r="A20" s="122"/>
+      <c r="B20" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="86" t="s">
+      <c r="F20" s="103"/>
+      <c r="G20" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="92" t="s">
-        <v>176</v>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79" t="s">
+        <v>175</v>
       </c>
-      <c r="J20" s="92" t="s">
-        <v>184</v>
+      <c r="J20" s="79" t="s">
+        <v>183</v>
       </c>
       <c r="K20" s="20"/>
       <c r="O20" s="22"/>
@@ -9623,16 +9635,16 @@
       <c r="AE20" s="22"/>
     </row>
     <row r="21" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
       <c r="K21" s="20"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
@@ -9653,7 +9665,7 @@
       <c r="AE21" s="22"/>
     </row>
     <row r="22" spans="1:31" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="98" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="44" t="s">
@@ -9663,25 +9675,25 @@
         <v>137</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="86" t="s">
-        <v>160</v>
+      <c r="G22" s="77" t="s">
+        <v>159</v>
       </c>
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="92" t="s">
-        <v>177</v>
+      <c r="I22" s="79" t="s">
+        <v>176</v>
       </c>
       <c r="J22" s="111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K22" s="56"/>
       <c r="O22" s="22"/>
@@ -9703,7 +9715,7 @@
       <c r="AE22" s="22"/>
     </row>
     <row r="23" spans="1:31" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
@@ -9716,10 +9728,10 @@
       <c r="E23" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="92"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="112"/>
       <c r="K23" s="20"/>
       <c r="O23" s="22"/>
@@ -9741,7 +9753,7 @@
       <c r="AE23" s="22"/>
     </row>
     <row r="24" spans="1:31" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="44" t="s">
         <v>7</v>
       </c>
@@ -9749,19 +9761,19 @@
         <v>135</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="98"/>
-      <c r="G24" s="86" t="s">
-        <v>161</v>
+      <c r="F24" s="103"/>
+      <c r="G24" s="77" t="s">
+        <v>160</v>
       </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="92"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
       <c r="J24" s="112"/>
-      <c r="K24" s="129" t="s">
+      <c r="K24" s="91" t="s">
         <v>116</v>
       </c>
       <c r="L24" s="59"/>
@@ -9784,7 +9796,7 @@
       <c r="AE24" s="22"/>
     </row>
     <row r="25" spans="1:31" ht="126" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
@@ -9797,12 +9809,12 @@
       <c r="E25" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="98"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="92"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="112"/>
-      <c r="K25" s="130"/>
+      <c r="K25" s="92"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
@@ -9822,25 +9834,25 @@
       <c r="AE25" s="22"/>
     </row>
     <row r="26" spans="1:31" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="95" t="s">
-        <v>162</v>
+      <c r="F26" s="103"/>
+      <c r="G26" s="99" t="s">
+        <v>161</v>
       </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="92"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
       <c r="J26" s="112"/>
       <c r="K26" s="56"/>
       <c r="O26" s="22"/>
@@ -9862,7 +9874,7 @@
       <c r="AE26" s="22"/>
     </row>
     <row r="27" spans="1:31" ht="126" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="44" t="s">
         <v>8</v>
       </c>
@@ -9875,10 +9887,10 @@
       <c r="E27" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="99"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="92"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
       <c r="J27" s="113"/>
       <c r="K27" s="20"/>
       <c r="O27" s="22"/>
@@ -9900,14 +9912,14 @@
       <c r="AE27" s="22"/>
     </row>
     <row r="28" spans="1:31" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>140</v>
@@ -9916,19 +9928,19 @@
         <v>94</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
-      <c r="G28" s="86" t="s">
-        <v>168</v>
+      <c r="G28" s="77" t="s">
+        <v>167</v>
       </c>
-      <c r="H28" s="87" t="s">
+      <c r="H28" s="78" t="s">
         <v>89</v>
       </c>
       <c r="I28" s="111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
-      <c r="J28" s="111" t="s">
-        <v>185</v>
+      <c r="J28" s="114" t="s">
+        <v>184</v>
       </c>
       <c r="K28" s="20"/>
       <c r="O28" s="22"/>
@@ -9950,12 +9962,12 @@
       <c r="AE28" s="22"/>
     </row>
     <row r="29" spans="1:31" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="45" t="s">
         <v>141</v>
@@ -9966,10 +9978,10 @@
       <c r="F29" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
       <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
+      <c r="J29" s="115"/>
       <c r="K29" s="20"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
@@ -9990,12 +10002,12 @@
       <c r="AE29" s="22"/>
     </row>
     <row r="30" spans="1:31" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>140</v>
@@ -10004,14 +10016,14 @@
         <v>89</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
-      <c r="G30" s="86" t="s">
-        <v>164</v>
+      <c r="G30" s="77" t="s">
+        <v>163</v>
       </c>
-      <c r="H30" s="87"/>
+      <c r="H30" s="78"/>
       <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
+      <c r="J30" s="115"/>
       <c r="K30" s="20"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -10032,12 +10044,12 @@
       <c r="AE30" s="22"/>
     </row>
     <row r="31" spans="1:31" ht="201" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31" s="45" t="s">
         <v>142</v>
@@ -10048,10 +10060,10 @@
       <c r="F31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="87"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
       <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
+      <c r="J31" s="115"/>
       <c r="K31" s="20"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
@@ -10072,12 +10084,12 @@
       <c r="AE31" s="22"/>
     </row>
     <row r="32" spans="1:31" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="45" t="s">
         <v>140</v>
@@ -10086,14 +10098,14 @@
         <v>88</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
-      <c r="G32" s="86" t="s">
-        <v>163</v>
+      <c r="G32" s="77" t="s">
+        <v>162</v>
       </c>
-      <c r="H32" s="87"/>
+      <c r="H32" s="78"/>
       <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
+      <c r="J32" s="115"/>
       <c r="K32" s="20"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -10114,26 +10126,26 @@
       <c r="AE32" s="22"/>
     </row>
     <row r="33" spans="1:31" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="E33" s="45" t="s">
         <v>92</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
-      <c r="G33" s="86"/>
-      <c r="H33" s="87"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
+      <c r="J33" s="116"/>
       <c r="K33" s="20"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
@@ -10154,29 +10166,29 @@
       <c r="AE33" s="22"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="98" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="105" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="106"/>
-      <c r="F34" s="103" t="s">
+      <c r="F34" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="120" t="s">
+      <c r="G34" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="122"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="127"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
@@ -10196,21 +10208,21 @@
       <c r="AE34" s="22"/>
     </row>
     <row r="35" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="107"/>
       <c r="E35" s="108"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="125"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="130"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
@@ -10230,21 +10242,21 @@
       <c r="AE35" s="22"/>
     </row>
     <row r="36" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" s="109"/>
       <c r="E36" s="110"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="125"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="130"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
@@ -10264,29 +10276,29 @@
       <c r="AE36" s="22"/>
     </row>
     <row r="37" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="98" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
-      <c r="D37" s="97" t="s">
+      <c r="D37" s="102" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="79" t="s">
+      <c r="F37" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="123"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="125"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="130"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
@@ -10306,21 +10318,21 @@
       <c r="AE37" s="22"/>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="125"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="130"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
@@ -10340,21 +10352,21 @@
       <c r="AE38" s="22"/>
     </row>
     <row r="39" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="128"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="133"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
@@ -10374,26 +10386,26 @@
       <c r="AE39" s="22"/>
     </row>
     <row r="40" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="97" t="s">
         <v>109</v>
       </c>
       <c r="B40" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
       <c r="G40" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
-      <c r="H40" s="88" t="s">
+      <c r="H40" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="92" t="s">
-        <v>172</v>
+      <c r="I40" s="79" t="s">
+        <v>171</v>
       </c>
       <c r="J40" s="60"/>
       <c r="K40" s="20"/>
@@ -10416,19 +10428,19 @@
       <c r="AE40" s="22"/>
     </row>
     <row r="41" spans="1:31" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
+      <c r="A41" s="97"/>
       <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
       <c r="G41" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
-      <c r="H41" s="89"/>
-      <c r="I41" s="93"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="94"/>
       <c r="J41" s="60"/>
       <c r="K41" s="20"/>
       <c r="O41" s="22"/>
@@ -10450,19 +10462,19 @@
       <c r="AE41" s="22"/>
     </row>
     <row r="42" spans="1:31" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
+      <c r="A42" s="97"/>
       <c r="B42" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
       <c r="G42" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
-      <c r="H42" s="89"/>
-      <c r="I42" s="93"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="94"/>
       <c r="J42" s="60"/>
       <c r="K42" s="20"/>
       <c r="O42" s="22"/>
@@ -10484,26 +10496,26 @@
       <c r="AE42" s="22"/>
     </row>
     <row r="43" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="97" t="s">
         <v>83</v>
       </c>
       <c r="B43" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
       <c r="G43" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
-      <c r="H43" s="88" t="s">
+      <c r="H43" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="92" t="s">
-        <v>179</v>
+      <c r="I43" s="79" t="s">
+        <v>178</v>
       </c>
       <c r="J43" s="60"/>
       <c r="K43" s="20"/>
@@ -10526,19 +10538,19 @@
       <c r="AE43" s="22"/>
     </row>
     <row r="44" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
       <c r="G44" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
-      <c r="H44" s="89"/>
-      <c r="I44" s="92"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="79"/>
       <c r="J44" s="60"/>
       <c r="K44" s="20"/>
       <c r="O44" s="22"/>
@@ -10560,19 +10572,19 @@
       <c r="AE44" s="22"/>
     </row>
     <row r="45" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
       <c r="G45" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
-      <c r="H45" s="89"/>
-      <c r="I45" s="92"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="79"/>
       <c r="J45" s="60"/>
       <c r="K45" s="20"/>
       <c r="O45" s="22"/>
@@ -39766,25 +39778,29 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="C40:F42"/>
     <mergeCell ref="G34:K39"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="C43:F45"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="D34:E36"/>
@@ -39801,30 +39817,26 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C15:F17"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="C40:F42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="C43:F45"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J20:J21"/>
     <mergeCell ref="G9:J10"/>
     <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -39912,7 +39924,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="138" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -39938,7 +39950,7 @@
       <c r="L5" s="75"/>
     </row>
     <row r="6" spans="1:12" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
@@ -39962,7 +39974,7 @@
       <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:12" ht="171" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
@@ -39981,7 +39993,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="138" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -40000,7 +40012,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
@@ -40019,7 +40031,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -40038,7 +40050,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="139" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -40057,7 +40069,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
@@ -40076,7 +40088,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
@@ -40095,7 +40107,7 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="140" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -40114,7 +40126,7 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
@@ -40131,7 +40143,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
@@ -40148,7 +40160,7 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
@@ -40165,7 +40177,7 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="140" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -40175,53 +40187,53 @@
         <v>68</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="134" t="s">
+      <c r="F18" s="137" t="s">
         <v>70</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
